--- a/data/trans_orig/ALTURA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Altura media en cm</t>
+          <t>Altura media en cm (tasa de respuesta: 98,31%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ALTURA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>175,28</t>
+          <t>175,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>163,47</t>
+          <t>163,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>169,3</t>
+          <t>169,52</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>174,64; 175,95</t>
+          <t>175,19; 176,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>174,22; 175,61</t>
+          <t>174,27; 175,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>175,6; 176,84</t>
+          <t>175,66; 176,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>162,9; 164,09</t>
+          <t>162,96; 164,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>162,88; 164,07</t>
+          <t>162,92; 164,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>162,88; 164,14</t>
+          <t>162,85; 164,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>168,78; 169,97</t>
+          <t>168,8; 170,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169,26; 170,52</t>
+          <t>169,12; 170,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>169,17; 170,41</t>
+          <t>169,19; 170,39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>175,4</t>
+          <t>175,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>162,26</t>
+          <t>163,04</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>167,77</t>
+          <t>168,72</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>174,55; 176,33</t>
+          <t>174,41; 176,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>173,56; 175,14</t>
+          <t>173,45; 175,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>173,57; 175,7</t>
+          <t>173,73; 175,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>161,52; 162,88</t>
+          <t>162,27; 163,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>162,3; 163,68</t>
+          <t>162,33; 163,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>161,12; 162,47</t>
+          <t>161,07; 162,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>166,89; 168,47</t>
+          <t>167,94; 169,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168,56; 170,03</t>
+          <t>168,6; 169,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>166,61; 168,15</t>
+          <t>166,54; 168,08</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>172,8</t>
+          <t>173,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>160,44</t>
+          <t>160,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>169,22</t>
+          <t>170,36</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,11; 173,56</t>
+          <t>173,04; 174,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>172,21; 180,6</t>
+          <t>172,1; 180,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>170,66; 173,23</t>
+          <t>170,69; 173,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,6; 161,43</t>
+          <t>159,8; 161,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>160,98; 163,43</t>
+          <t>161,02; 163,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>157,03; 160,44</t>
+          <t>156,77; 160,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168,53; 169,91</t>
+          <t>169,53; 171,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169,17; 179,53</t>
+          <t>169,17; 179,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>165,81; 168,66</t>
+          <t>165,76; 168,45</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>173,05</t>
+          <t>173,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>161,21</t>
+          <t>161,54</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>166,86</t>
+          <t>167,59</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,32; 173,86</t>
+          <t>173,13; 175,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,19; 173,69</t>
+          <t>172,26; 173,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>170,21; 172,98</t>
+          <t>170,37; 173,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>160,67; 161,82</t>
+          <t>160,85; 162,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>157,09; 162,5</t>
+          <t>157,1; 162,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>159,14; 161,22</t>
+          <t>159,12; 161,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,23; 167,51</t>
+          <t>166,83; 168,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>161,24; 168,35</t>
+          <t>161,49; 168,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>165,23; 167,24</t>
+          <t>165,25; 167,21</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>172,23</t>
+          <t>172,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>159,68</t>
+          <t>159,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>163,88</t>
+          <t>164,32</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>171,27; 173,24</t>
+          <t>171,44; 173,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>172,4; 175,53</t>
+          <t>172,39; 175,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>170,21; 174,17</t>
+          <t>170,18; 174,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>158,95; 160,52</t>
+          <t>158,55; 160,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>156,51; 160,97</t>
+          <t>156,56; 161,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>155,86; 158,29</t>
+          <t>155,95; 158,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>163,1; 164,68</t>
+          <t>163,42; 165,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>160,37; 165,87</t>
+          <t>160,4; 165,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>161,21; 164,09</t>
+          <t>161,19; 164,02</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>176,24</t>
+          <t>176,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>161,61</t>
+          <t>162,38</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>164,85</t>
+          <t>166,33</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>174,81; 177,56</t>
+          <t>175,13; 178,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>174,35; 177,71</t>
+          <t>174,64; 177,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>172,38; 177,76</t>
+          <t>172,63; 177,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>160,88; 162,41</t>
+          <t>161,4; 163,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>160,99; 162,19</t>
+          <t>160,93; 162,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>159,54; 162,57</t>
+          <t>159,77; 162,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>163,91; 165,62</t>
+          <t>165,2; 167,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>164,4; 166,29</t>
+          <t>164,43; 166,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>164,95; 168,6</t>
+          <t>164,76; 168,29</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>173,87</t>
+          <t>174,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>161,54</t>
+          <t>162,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>167,23</t>
+          <t>168,03</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>173,55; 174,22</t>
+          <t>174,2; 174,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>173,73; 177,32</t>
+          <t>173,76; 177,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>173,39; 174,41</t>
+          <t>173,38; 174,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>161,27; 161,84</t>
+          <t>161,69; 162,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>159,25; 162,01</t>
+          <t>159,46; 162,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>160,67; 161,49</t>
+          <t>160,72; 161,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>166,92; 167,51</t>
+          <t>167,7; 168,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>166,09; 170,03</t>
+          <t>166,03; 169,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>166,88; 167,74</t>
+          <t>166,88; 167,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ALTURA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>174,87</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>176,26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>177,16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>175,86</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>174,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>177,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>176,26</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>163,51</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>163,53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>164,07</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>163,68</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>163,55</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>164,07</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>163,53</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>169,74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>169,82</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>170,83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>169,52</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>169,85</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>170,83</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>169,82</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>174,22; 175,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>175,66; 176,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>176,47; 177,73</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>175,19; 176,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>174,27; 175,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>176,47; 177,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>175,66; 176,85</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>162,88; 164,15</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>162,85; 164,06</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>163,55; 164,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>162,96; 164,41</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>162,92; 164,18</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>163,55; 164,62</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>162,85; 164,06</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>169,03; 170,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>169,19; 170,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>170,2; 171,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>168,8; 170,23</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>169,12; 170,46</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>170,2; 171,43</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>169,19; 170,39</t>
         </is>
       </c>
     </row>
@@ -796,24 +796,24 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>174,25</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>174,7</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>176,84</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>175,36</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>174,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>176,84</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>174,7</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>163,04</t>
@@ -821,7 +821,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>162,97</t>
+          <t>161,77</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -831,27 +831,27 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>161,77</t>
+          <t>163,04</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>169,18</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167,3</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>169,78</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>168,72</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>169,26</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>169,78</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>167,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>173,48; 175,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>173,73; 175,72</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>176,12; 177,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>174,41; 176,33</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>173,45; 175,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>176,12; 177,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>173,73; 175,72</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>162,46; 163,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>161,07; 162,45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>163,29; 164,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>162,27; 163,79</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>162,33; 163,69</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>163,29; 164,44</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>161,07; 162,45</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>168,51; 169,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>166,54; 168,08</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>169,15; 170,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>167,94; 169,55</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>168,6; 169,96</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>169,15; 170,51</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>166,54; 168,08</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>172,66</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>171,85</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>174,6</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>173,79</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>177,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>174,6</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>171,85</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>161,99</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>158,81</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>162,16</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>160,8</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>162,09</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>162,16</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>158,81</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>169,48</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>167,15</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170,72</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>170,36</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>174,84</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>170,72</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>167,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>171,68; 173,57</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>170,69; 173,34</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>173,85; 175,43</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>173,04; 174,62</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>172,1; 180,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>173,85; 175,43</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>170,69; 173,34</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>160,86; 163,45</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>156,77; 160,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>161,02; 163,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>159,8; 161,98</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>161,02; 163,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>161,02; 163,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>156,77; 160,29</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>168,62; 170,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>165,76; 168,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>169,89; 171,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>169,53; 171,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>169,17; 179,67</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>169,89; 171,63</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>165,76; 168,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>172,94</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>171,97</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>175,1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>173,92</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>172,88</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>175,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>171,97</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>162,31</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>159,98</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>162,44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>161,54</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>159,94</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>162,44</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>159,98</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>168,18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>166,23</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>168,66</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>167,59</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>165,82</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>168,66</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>166,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>172,33; 173,6</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>170,37; 173,13</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>174,5; 175,72</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>173,13; 175,01</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>172,26; 173,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>174,5; 175,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>170,37; 173,13</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>161,8; 162,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>159,12; 161,09</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>161,87; 163,01</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>160,85; 162,24</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>157,1; 162,44</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>161,87; 163,01</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>159,12; 161,09</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>167,66; 168,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>165,25; 167,21</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>168,12; 169,33</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>166,83; 168,37</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>161,49; 168,28</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>168,12; 169,33</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>165,25; 167,21</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>173,43</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>172,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>175,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>172,46</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>173,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>175,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>172,26</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>161,06</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>157,11</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>161,14</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>159,52</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>159,31</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>161,14</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>157,11</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>165,88</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>162,69</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>168,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>164,32</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>164,09</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>168,13</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>162,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>172,51; 174,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>170,18; 174,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>174,26; 176,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>171,44; 173,46</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>172,39; 175,59</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>174,26; 176,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>170,18; 174,08</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>160,51; 161,59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>155,95; 158,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>160,38; 161,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>158,55; 160,44</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>156,56; 161,0</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>160,38; 161,95</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>155,95; 158,36</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>165,09; 166,62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>161,19; 164,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>167,18; 169,07</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>163,42; 165,31</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>160,4; 165,81</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>167,18; 169,07</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>161,19; 164,02</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>176,29</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>175,23</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>177,93</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>176,48</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>176,22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>177,93</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>175,23</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>161,59</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>161,06</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>157,81</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>162,38</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>161,52</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>157,81</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>161,06</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>165,13</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>166,43</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>166,52</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>166,33</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>165,33</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>166,52</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>166,43</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>174,91; 177,88</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>172,63; 177,66</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>174,5; 181,56</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>175,13; 178,03</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>174,64; 177,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>174,5; 181,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>172,63; 177,66</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>161,03; 162,15</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>159,77; 162,67</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>150,27; 161,11</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>161,4; 163,65</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>160,93; 162,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>150,27; 161,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>159,77; 162,67</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>164,27; 165,95</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>164,76; 168,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>161,5; 170,85</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>165,2; 167,52</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>164,43; 166,29</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>161,5; 170,85</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>164,76; 168,29</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>173,84</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>173,97</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>175,9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>174,59</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>174,83</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>175,9</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>173,97</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>162,16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>161,09</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>162,91</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>162,04</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>161,11</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>162,91</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>161,09</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>167,84</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>167,29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>169,59</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>168,03</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>167,8</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>169,59</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>167,29</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>173,47; 174,2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>173,38; 174,42</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>175,54; 176,23</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>174,2; 174,95</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>173,76; 177,24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>175,54; 176,23</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>173,38; 174,42</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>161,91; 162,4</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>160,72; 161,59</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>162,62; 163,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>161,69; 162,39</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>159,46; 162,07</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>162,62; 163,2</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>160,72; 161,59</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>167,54; 168,13</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>166,88; 167,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>169,24; 169,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>167,7; 168,36</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>166,03; 169,97</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>169,24; 169,91</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>166,88; 167,69</t>
         </is>
       </c>
     </row>
